--- a/Contributions.xlsx
+++ b/Contributions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>NUMBER</t>
   </si>
@@ -34,9 +34,15 @@
     <t>Previous work</t>
   </si>
   <si>
+    <t>Zhan</t>
+  </si>
+  <si>
     <t>Explanation of prediction/ classification</t>
   </si>
   <si>
+    <t>Liu</t>
+  </si>
+  <si>
     <t>Description variables (ordinal,…)</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
   </si>
   <si>
     <t>Feasibility of ML models</t>
+  </si>
+  <si>
+    <t>Liu / Diego</t>
   </si>
   <si>
     <t>PCA (explained var, …)</t>
@@ -69,13 +78,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -86,7 +101,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -123,14 +138,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,7 +147,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -511,27 +526,33 @@
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="32.25">
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33.75">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
         <v>1.3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32.25">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33.75">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
         <v>2.1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
@@ -539,9 +560,11 @@
         <v>2.2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
@@ -549,7 +572,7 @@
         <v>2.3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>4</v>
@@ -561,9 +584,11 @@
         <v>3.1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
@@ -571,7 +596,7 @@
         <v>3.2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>4</v>
@@ -583,7 +608,7 @@
         <v>3.3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>4</v>
@@ -595,9 +620,11 @@
         <v>3.4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
@@ -605,17 +632,19 @@
         <v>3.5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33.75">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
         <v>3.6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -643,25 +672,25 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
